--- a/data_sce.xlsx
+++ b/data_sce.xlsx
@@ -8,16 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://miumh-my.sharepoint.com/personal/ricardo_gonzalezm_miumh_umh_es/Documents/Documentos/Cafee/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="127" documentId="11_146BD1434DD931A6A842A38D1A9AF3B5B3D09D13" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71E77299-1180-433C-B60E-ED2D9D73D1CC}"/>
+  <xr:revisionPtr revIDLastSave="149" documentId="11_146BD1434DD931A6A842A38D1A9AF3B5B3D09D13" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B205CDAB-5285-446C-9FAD-03018F7E95A8}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0.75" sheetId="1" r:id="rId1"/>
     <sheet name="0.85" sheetId="2" r:id="rId2"/>
     <sheet name="0.95" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -87,7 +100,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -110,151 +123,60 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -271,6 +193,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -554,7 +480,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G97"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -2797,10 +2725,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q97"/>
+  <dimension ref="A1:S97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="N34" sqref="N34"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30:O38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2808,15 +2736,17 @@
     <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.42578125" customWidth="1"/>
     <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.28515625" customWidth="1"/>
-    <col min="17" max="17" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.28515625" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>258.53447999999997</v>
       </c>
@@ -2839,7 +2769,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>184.97800000000001</v>
       </c>
@@ -2862,7 +2792,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>128.93343999999999</v>
       </c>
@@ -2885,7 +2815,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>97.399758611760106</v>
       </c>
@@ -2908,7 +2838,7 @@
         <v>0.85000000447146296</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>111.153793653807</v>
       </c>
@@ -2931,7 +2861,7 @@
         <v>0.84999999979163998</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>122.62796047255</v>
       </c>
@@ -2954,7 +2884,7 @@
         <v>0.84999998994196502</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>91.162873922208306</v>
       </c>
@@ -2977,7 +2907,7 @@
         <v>0.84999999619786204</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>199.03315380510799</v>
       </c>
@@ -3000,7 +2930,7 @@
         <v>0.80070259389049403</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>53.410760000000003</v>
       </c>
@@ -3023,7 +2953,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>81.118854751648797</v>
       </c>
@@ -3046,7 +2976,7 @@
         <v>0.849999973485564</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>91.673224807549801</v>
       </c>
@@ -3069,7 +2999,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>81.712322618479007</v>
       </c>
@@ -3092,7 +3022,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>30.150897397549301</v>
       </c>
@@ -3115,7 +3045,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>64.031567539033603</v>
       </c>
@@ -3138,7 +3068,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>94.4433287451197</v>
       </c>
@@ -3160,11 +3090,11 @@
       <c r="G15">
         <v>0.84999999080817101</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="M15" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>40.640245874794701</v>
       </c>
@@ -3187,7 +3117,7 @@
         <v>0.84999998439554403</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>35.782559999999997</v>
       </c>
@@ -3210,7 +3140,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>25.98742</v>
       </c>
@@ -3233,7 +3163,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>49.734795532130804</v>
       </c>
@@ -3256,7 +3186,7 @@
         <v>0.85000001675431702</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>91.190070000000006</v>
       </c>
@@ -3279,7 +3209,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>40.831983863895999</v>
       </c>
@@ -3303,29 +3233,31 @@
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
-      <c r="K21" s="14" t="s">
+      <c r="K21" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L21" s="14" t="s">
+      <c r="L21" s="4"/>
+      <c r="M21" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M21" s="14" t="s">
+      <c r="N21" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="N21" s="14" t="s">
+      <c r="O21" s="4"/>
+      <c r="P21" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="O21" s="14" t="s">
+      <c r="Q21" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="P21" s="14" t="s">
+      <c r="R21" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="Q21" s="14" t="s">
+      <c r="S21" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>23.196545581315899</v>
       </c>
@@ -3347,35 +3279,37 @@
       <c r="G22">
         <v>0.85</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="I22" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="J22" s="4" t="s">
+      <c r="J22" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="5">
+      <c r="K22" s="3">
         <v>24.705490000000001</v>
       </c>
-      <c r="L22" s="5">
+      <c r="L22" s="3"/>
+      <c r="M22" s="3">
         <v>212</v>
       </c>
-      <c r="M22" s="5">
+      <c r="N22" s="3">
         <v>11.462249999999999</v>
       </c>
-      <c r="N22" s="5">
+      <c r="O22" s="3"/>
+      <c r="P22" s="3">
         <v>8.0012500000000006</v>
       </c>
-      <c r="O22" s="5">
+      <c r="Q22" s="3">
         <v>80.893169999999998</v>
       </c>
-      <c r="P22" s="5">
+      <c r="R22" s="3">
         <v>0</v>
       </c>
-      <c r="Q22" s="5">
+      <c r="S22" s="3">
         <v>5.5985130000000001E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>31.9122887302353</v>
       </c>
@@ -3397,33 +3331,35 @@
       <c r="G23">
         <v>0.85</v>
       </c>
-      <c r="I23" s="6"/>
+      <c r="I23" s="10"/>
       <c r="J23" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K23" s="7">
+      <c r="K23" s="5">
         <v>23.196545581315899</v>
       </c>
-      <c r="L23" s="7">
+      <c r="L23" s="5"/>
+      <c r="M23" s="5">
         <v>196.96831385105801</v>
       </c>
-      <c r="M23" s="7">
+      <c r="N23" s="5">
         <v>10.958742543339101</v>
       </c>
-      <c r="N23" s="7">
+      <c r="O23" s="5"/>
+      <c r="P23" s="5">
         <v>7.9992619305871404</v>
       </c>
-      <c r="O23" s="7">
+      <c r="Q23" s="5">
         <v>90.205728077487194</v>
       </c>
-      <c r="P23" s="7">
+      <c r="R23" s="5">
         <v>0.294215933198063</v>
       </c>
-      <c r="Q23" s="7">
+      <c r="S23" s="5">
         <v>0.85</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>34.847530476980801</v>
       </c>
@@ -3445,35 +3381,37 @@
       <c r="G24">
         <v>0.85000000650569396</v>
       </c>
-      <c r="I24" s="8" t="s">
+      <c r="I24" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="J24" s="9" t="s">
+      <c r="J24" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="10">
+      <c r="K24" s="7">
         <v>48.902000000000001</v>
       </c>
-      <c r="L24" s="10">
+      <c r="L24" s="7"/>
+      <c r="M24" s="7">
         <v>134</v>
       </c>
-      <c r="M24" s="10">
+      <c r="N24" s="7">
         <v>20.096</v>
       </c>
-      <c r="N24" s="10">
+      <c r="O24" s="7"/>
+      <c r="P24" s="7">
         <v>6.3849999999999998</v>
       </c>
-      <c r="O24" s="10">
+      <c r="Q24" s="7">
         <v>52.773000000000003</v>
       </c>
-      <c r="P24" s="10">
+      <c r="R24" s="7">
         <v>0</v>
       </c>
-      <c r="Q24" s="10">
+      <c r="S24" s="7">
         <v>6.1894339999999997E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>27.442349004158899</v>
       </c>
@@ -3495,33 +3433,35 @@
       <c r="G25">
         <v>0.85</v>
       </c>
-      <c r="I25" s="6"/>
+      <c r="I25" s="10"/>
       <c r="J25" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K25" s="11">
+      <c r="K25" s="8">
         <v>40.654848800704599</v>
       </c>
-      <c r="L25" s="11">
+      <c r="L25" s="8"/>
+      <c r="M25" s="8">
         <v>51.844165155675299</v>
       </c>
-      <c r="M25" s="11">
+      <c r="N25" s="8">
         <v>17.344074830565201</v>
       </c>
-      <c r="N25" s="11">
+      <c r="O25" s="8"/>
+      <c r="P25" s="8">
         <v>6.37413418623012</v>
       </c>
-      <c r="O25" s="11">
+      <c r="Q25" s="8">
         <v>103.670881702119</v>
       </c>
-      <c r="P25" s="11">
+      <c r="R25" s="8">
         <v>1.6080402010050301</v>
       </c>
-      <c r="Q25" s="11">
+      <c r="S25" s="8">
         <v>0.800587253537418</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25.357075250220198</v>
       </c>
@@ -3544,7 +3484,7 @@
         <v>0.80783989966636505</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>61.2338140509247</v>
       </c>
@@ -3567,7 +3507,7 @@
         <v>0.79948362174656595</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>101.716908300264</v>
       </c>
@@ -3590,7 +3530,7 @@
         <v>7.3914055646439603E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>34.315703636724898</v>
       </c>
@@ -3613,7 +3553,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>34.916365060285599</v>
       </c>
@@ -3635,18 +3575,20 @@
       <c r="G30">
         <v>0.85</v>
       </c>
-      <c r="I30" s="4"/>
-      <c r="J30" s="22" t="s">
+      <c r="I30" s="13"/>
+      <c r="J30" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="K30" s="23"/>
-      <c r="L30" s="22" t="s">
+      <c r="K30" s="14"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="M30" s="23"/>
-      <c r="N30" s="18"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N30" s="14"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="13"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>38.240225806874399</v>
       </c>
@@ -3669,21 +3611,23 @@
         <v>0.85</v>
       </c>
       <c r="I31" s="2"/>
-      <c r="J31" s="17" t="s">
+      <c r="J31" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K31" s="16" t="s">
+      <c r="K31" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L31" s="17" t="s">
+      <c r="L31" s="2"/>
+      <c r="M31" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M31" s="16" t="s">
+      <c r="N31" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="N31" s="18"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O31" s="2"/>
+      <c r="P31" s="13"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>40.102204009449302</v>
       </c>
@@ -3705,24 +3649,32 @@
       <c r="G32">
         <v>0.85</v>
       </c>
-      <c r="I32" s="19" t="s">
+      <c r="I32" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="J32" s="12">
+      <c r="J32" s="17">
         <v>24.705490000000001</v>
       </c>
-      <c r="K32" s="5">
+      <c r="K32" s="17">
         <v>23.196545581315899</v>
       </c>
-      <c r="L32" s="12">
+      <c r="L32" s="17">
+        <f>K32/$J32-1</f>
+        <v>-6.1077291674202838E-2</v>
+      </c>
+      <c r="M32" s="17">
         <v>48.902000000000001</v>
       </c>
-      <c r="M32" s="15">
+      <c r="N32" s="18">
         <v>40.654848800704599</v>
       </c>
-      <c r="N32" s="18"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O32" s="17">
+        <f>N32/$M32-1</f>
+        <v>-0.16864650115118818</v>
+      </c>
+      <c r="P32" s="13"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>46.924667839258198</v>
       </c>
@@ -3744,24 +3696,32 @@
       <c r="G33">
         <v>0.85</v>
       </c>
-      <c r="I33" s="20" t="s">
+      <c r="I33" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="J33" s="12">
+      <c r="J33" s="17">
         <v>212</v>
       </c>
-      <c r="K33" s="5">
+      <c r="K33" s="17">
         <v>196.96831385105801</v>
       </c>
-      <c r="L33" s="12">
+      <c r="L33" s="17">
+        <f t="shared" ref="L33:L38" si="0">K33/$J33-1</f>
+        <v>-7.0904179947839596E-2</v>
+      </c>
+      <c r="M33" s="17">
         <v>134</v>
       </c>
-      <c r="M33" s="15">
+      <c r="N33" s="18">
         <v>51.844165155675299</v>
       </c>
-      <c r="N33" s="18"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O33" s="17">
+        <f t="shared" ref="O33:O38" si="1">N33/$M33-1</f>
+        <v>-0.61310324510690073</v>
+      </c>
+      <c r="P33" s="13"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>34.235474071331602</v>
       </c>
@@ -3783,24 +3743,32 @@
       <c r="G34">
         <v>0.84999999385485303</v>
       </c>
-      <c r="I34" s="20" t="s">
+      <c r="I34" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="J34" s="12">
+      <c r="J34" s="17">
         <v>11.462249999999999</v>
       </c>
-      <c r="K34" s="5">
+      <c r="K34" s="17">
         <v>10.958742543339101</v>
       </c>
-      <c r="L34" s="12">
+      <c r="L34" s="17">
+        <f t="shared" si="0"/>
+        <v>-4.3927453742580891E-2</v>
+      </c>
+      <c r="M34" s="17">
         <v>20.096</v>
       </c>
-      <c r="M34" s="15">
+      <c r="N34" s="18">
         <v>17.344074830565201</v>
       </c>
-      <c r="N34" s="18"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O34" s="17">
+        <f t="shared" si="1"/>
+        <v>-0.13693895150451829</v>
+      </c>
+      <c r="P34" s="13"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>29.374036491906399</v>
       </c>
@@ -3822,24 +3790,32 @@
       <c r="G35">
         <v>0.85</v>
       </c>
-      <c r="I35" s="20" t="s">
+      <c r="I35" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="J35" s="12">
+      <c r="J35" s="17">
         <v>8.0012500000000006</v>
       </c>
-      <c r="K35" s="5">
+      <c r="K35" s="17">
         <v>7.9992619305871404</v>
       </c>
-      <c r="L35" s="12">
+      <c r="L35" s="17">
+        <f t="shared" si="0"/>
+        <v>-2.4846985319293413E-4</v>
+      </c>
+      <c r="M35" s="17">
         <v>6.3849999999999998</v>
       </c>
-      <c r="M35" s="15">
+      <c r="N35" s="18">
         <v>6.37413418623012</v>
       </c>
-      <c r="N35" s="18"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O35" s="17">
+        <f t="shared" si="1"/>
+        <v>-1.7017719295034928E-3</v>
+      </c>
+      <c r="P35" s="13"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>67.592039999999997</v>
       </c>
@@ -3861,24 +3837,32 @@
       <c r="G36">
         <v>0.85</v>
       </c>
-      <c r="I36" s="20" t="s">
+      <c r="I36" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="J36" s="12">
+      <c r="J36" s="17">
         <v>80.893169999999998</v>
       </c>
-      <c r="K36" s="5">
+      <c r="K36" s="17">
         <v>90.205728077487194</v>
       </c>
-      <c r="L36" s="12">
+      <c r="L36" s="17">
+        <f t="shared" si="0"/>
+        <v>0.11512168552038693</v>
+      </c>
+      <c r="M36" s="17">
         <v>52.773000000000003</v>
       </c>
-      <c r="M36" s="15">
+      <c r="N36" s="18">
         <v>103.670881702119</v>
       </c>
-      <c r="N36" s="18"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O36" s="17">
+        <f t="shared" si="1"/>
+        <v>0.96446822621641748</v>
+      </c>
+      <c r="P36" s="13"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>40.654848800704599</v>
       </c>
@@ -3900,24 +3884,26 @@
       <c r="G37">
         <v>0.800587253537418</v>
       </c>
-      <c r="I37" s="20" t="s">
+      <c r="I37" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="J37" s="12">
+      <c r="J37" s="17">
         <v>0</v>
       </c>
-      <c r="K37" s="5">
+      <c r="K37" s="17">
         <v>0.294215933198063</v>
       </c>
-      <c r="L37" s="12">
+      <c r="L37" s="17"/>
+      <c r="M37" s="17">
         <v>0</v>
       </c>
-      <c r="M37" s="15">
+      <c r="N37" s="18">
         <v>1.6080402010050301</v>
       </c>
-      <c r="N37" s="18"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O37" s="17"/>
+      <c r="P37" s="13"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>27.28824718293</v>
       </c>
@@ -3939,24 +3925,32 @@
       <c r="G38">
         <v>0.85</v>
       </c>
-      <c r="I38" s="21" t="s">
+      <c r="I38" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="J38" s="13">
+      <c r="J38" s="19">
         <v>5.5985130000000001E-2</v>
       </c>
-      <c r="K38" s="7">
+      <c r="K38" s="19">
         <v>0.85</v>
       </c>
-      <c r="L38" s="13">
+      <c r="L38" s="19">
+        <f t="shared" si="0"/>
+        <v>14.182602951890974</v>
+      </c>
+      <c r="M38" s="19">
         <v>6.1894339999999997E-4</v>
       </c>
-      <c r="M38" s="11">
+      <c r="N38" s="20">
         <v>0.800587253537418</v>
       </c>
-      <c r="N38" s="18"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O38" s="19">
+        <f t="shared" si="1"/>
+        <v>1292.4740939759888</v>
+      </c>
+      <c r="P38" s="13"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>26.631465330013601</v>
       </c>
@@ -3979,7 +3973,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>40.554150151012799</v>
       </c>
@@ -4002,7 +3996,7 @@
         <v>0.80066320216130404</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>31.1272630682762</v>
       </c>
@@ -4025,7 +4019,7 @@
         <v>0.84999999455738995</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>51.578479834000298</v>
       </c>
@@ -4048,7 +4042,7 @@
         <v>0.85000002755154302</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>15.628443050044</v>
       </c>
@@ -4071,7 +4065,7 @@
         <v>0.412055246057492</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>23.378563690918401</v>
       </c>
@@ -4094,7 +4088,7 @@
         <v>0.85000001561097904</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>19.047421974395601</v>
       </c>
@@ -4117,7 +4111,7 @@
         <v>0.85000000123185304</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>18.695409999999999</v>
       </c>
@@ -4140,7 +4134,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>18.2868807469149</v>
       </c>
@@ -4163,7 +4157,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>16.6116394048945</v>
       </c>
@@ -5318,7 +5312,7 @@
     <mergeCell ref="I22:I23"/>
     <mergeCell ref="I24:I25"/>
     <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="M30:N30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
